--- a/biology/Zoologie/Cephalophus_leucogaster/Cephalophus_leucogaster.xlsx
+++ b/biology/Zoologie/Cephalophus_leucogaster/Cephalophus_leucogaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Céphalophe à ventre blanc
 Le Céphalophe à ventre blanc (Cephalophus leucogaster) est un mammifère appartenant à la famille des Bovidae.
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au Cameroun, en Guinée équatoriale, au Gabon, en République centrafricaine, en République du Congo et en RD Congo. Il vit dans la forêt tropicale humide de basse altitude et dans la forêt secondaire. Il est totalement absent des forêts marécageuses[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Cameroun, en Guinée équatoriale, au Gabon, en République centrafricaine, en République du Congo et en RD Congo. Il vit dans la forêt tropicale humide de basse altitude et dans la forêt secondaire. Il est totalement absent des forêts marécageuses.
 </t>
         </is>
       </c>
